--- a/scripts/shstrophies/data/Mr Torren_s initial data input/Spring Awards/Baseball.xlsx
+++ b/scripts/shstrophies/data/Mr Torren_s initial data input/Spring Awards/Baseball.xlsx
@@ -12,36 +12,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="186">
   <si>
     <t>Year</t>
   </si>
   <si>
+    <t>Most Valuable (Missakian)</t>
+  </si>
+  <si>
     <t>Most Valuable (Andy Butera)</t>
   </si>
   <si>
-    <t>Most Valuable (Missakian)</t>
-  </si>
-  <si>
     <t>Most Improved</t>
   </si>
   <si>
+    <t>Toughest Out (Kirk)</t>
+  </si>
+  <si>
+    <t>Most Valuable Underclassman</t>
+  </si>
+  <si>
     <t>Captain</t>
   </si>
   <si>
-    <t>Toughest Out (Kirk)</t>
-  </si>
-  <si>
-    <t>Most Valuable Underclassman</t>
+    <t>image URL</t>
+  </si>
+  <si>
+    <t>DEFAULT IMAGE</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1qM1oBd96PszoNANcgHfv41J0fE2CHkqp/view</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1R8hgojy8_xuIEST9nxKFp31GvL-dkoWd/view</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1v3bdKAymeiAUAI55PusDRlNJzlV9U7yF/view</t>
   </si>
   <si>
     <t>1971/1972</t>
   </si>
   <si>
+    <t>Don Wooley</t>
+  </si>
+  <si>
+    <t>1972/1973</t>
+  </si>
+  <si>
+    <t>Perry Miller</t>
+  </si>
+  <si>
+    <t>1973/1974</t>
+  </si>
+  <si>
+    <t>Tom Kittleson</t>
+  </si>
+  <si>
+    <t>1974/1975</t>
+  </si>
+  <si>
     <t>1983/1984</t>
   </si>
   <si>
-    <t>Don Wooley</t>
+    <t>Rob Snyder</t>
   </si>
   <si>
     <t>Rich Shepperd</t>
@@ -53,39 +86,45 @@
     <t>Ed Kirk</t>
   </si>
   <si>
+    <t>1975/1976</t>
+  </si>
+  <si>
+    <t>Ted Rafalovich</t>
+  </si>
+  <si>
     <t>1985/1986</t>
   </si>
   <si>
     <t>Ken Henderson</t>
   </si>
   <si>
-    <t>1972/1973</t>
-  </si>
-  <si>
-    <t>Perry Miller</t>
-  </si>
-  <si>
     <t>1986/1987</t>
   </si>
   <si>
-    <t>1973/1974</t>
+    <t>1976/1977</t>
+  </si>
+  <si>
+    <t>Ted Hanson</t>
   </si>
   <si>
     <t>1987/1988</t>
   </si>
   <si>
-    <t>Tom Kittleson</t>
-  </si>
-  <si>
     <t>Dave Anshes</t>
   </si>
   <si>
     <t>1988/1989</t>
   </si>
   <si>
+    <t>1977/1978</t>
+  </si>
+  <si>
     <t>Eric Shaw</t>
   </si>
   <si>
+    <t>Frank Mills</t>
+  </si>
+  <si>
     <t>1989/1990</t>
   </si>
   <si>
@@ -95,52 +134,61 @@
     <t>Brian Lynch</t>
   </si>
   <si>
-    <t>1974/1975</t>
+    <t>1978/1979</t>
+  </si>
+  <si>
+    <t>Eric Johnson</t>
   </si>
   <si>
     <t>1990/1991</t>
   </si>
   <si>
-    <t>Rob Snyder</t>
-  </si>
-  <si>
     <t>James Renola</t>
   </si>
   <si>
     <t>Jason McCullough</t>
   </si>
   <si>
+    <t>1979/1980</t>
+  </si>
+  <si>
+    <t>John Lawson</t>
+  </si>
+  <si>
     <t>1991/1992</t>
   </si>
   <si>
+    <t>1980/1981</t>
+  </si>
+  <si>
     <t>Brian Hanley</t>
   </si>
   <si>
-    <t>1975/1976</t>
+    <t>Dave Taughinbaugh</t>
   </si>
   <si>
     <t>Scott Curry</t>
   </si>
   <si>
-    <t>Ted Rafalovich</t>
-  </si>
-  <si>
     <t>1992/1993</t>
   </si>
   <si>
     <t>Kyle Goni</t>
   </si>
   <si>
+    <t>1981/1982</t>
+  </si>
+  <si>
     <t>Matt Jones</t>
   </si>
   <si>
+    <t>Walter Eissman</t>
+  </si>
+  <si>
     <t>1993/1994</t>
   </si>
   <si>
-    <t>1976/1977</t>
-  </si>
-  <si>
-    <t>Ted Hanson</t>
+    <t>Richard Shepperd</t>
   </si>
   <si>
     <t>1994/1995</t>
@@ -155,10 +203,10 @@
     <t>Kyle Cardin</t>
   </si>
   <si>
-    <t>1977/1978</t>
-  </si>
-  <si>
-    <t>Frank Mills</t>
+    <t>1982/1984</t>
+  </si>
+  <si>
+    <t>Jim Cuddy</t>
   </si>
   <si>
     <t>1995/1996</t>
@@ -167,18 +215,15 @@
     <t>Kyle Cardin&amp;David Goni</t>
   </si>
   <si>
-    <t>1978/1979</t>
-  </si>
-  <si>
     <t>Kota Takamoto</t>
   </si>
   <si>
-    <t>Eric Johnson</t>
-  </si>
-  <si>
     <t>David Schneider</t>
   </si>
   <si>
+    <t>Steve Pace</t>
+  </si>
+  <si>
     <t>1996/1997</t>
   </si>
   <si>
@@ -188,31 +233,25 @@
     <t>1997/1998</t>
   </si>
   <si>
-    <t>1979/1980</t>
-  </si>
-  <si>
     <t>Nick Blue</t>
   </si>
   <si>
-    <t>John Lawson</t>
-  </si>
-  <si>
     <t>Ryan Bernard</t>
   </si>
   <si>
     <t>Erick Raich</t>
   </si>
   <si>
+    <t>David Woolley</t>
+  </si>
+  <si>
     <t>1998/1999</t>
   </si>
   <si>
-    <t>1980/1981</t>
-  </si>
-  <si>
     <t>Brady Moran</t>
   </si>
   <si>
-    <t>Dave Taughinbaugh</t>
+    <t>Craig Holst</t>
   </si>
   <si>
     <t>Caleb Mosley</t>
@@ -221,24 +260,15 @@
     <t>1999/2000</t>
   </si>
   <si>
-    <t>1981/1982</t>
-  </si>
-  <si>
     <t>Adam Varteressian</t>
   </si>
   <si>
-    <t>Walter Eissman</t>
-  </si>
-  <si>
     <t>Mike Cook</t>
   </si>
   <si>
     <t>2000/2001</t>
   </si>
   <si>
-    <t>Richard Shepperd</t>
-  </si>
-  <si>
     <t>Justin Oliver</t>
   </si>
   <si>
@@ -248,15 +278,12 @@
     <t>2001/2002</t>
   </si>
   <si>
-    <t>1982/1984</t>
-  </si>
-  <si>
-    <t>Jim Cuddy</t>
-  </si>
-  <si>
     <t>Buck Wright</t>
   </si>
   <si>
+    <t>Matt Donati</t>
+  </si>
+  <si>
     <t>2002/2003</t>
   </si>
   <si>
@@ -275,12 +302,12 @@
     <t>Tyler Rothenberg</t>
   </si>
   <si>
-    <t>Steve Pace</t>
-  </si>
-  <si>
     <t>Peter Rutti</t>
   </si>
   <si>
+    <t>T.J. Summers</t>
+  </si>
+  <si>
     <t>2004/2005</t>
   </si>
   <si>
@@ -293,6 +320,9 @@
     <t>Scott Newberry</t>
   </si>
   <si>
+    <t>Kevin Blasdell</t>
+  </si>
+  <si>
     <t>2005/2006</t>
   </si>
   <si>
@@ -302,6 +332,9 @@
     <t>Bo Nielson</t>
   </si>
   <si>
+    <t>Doug Coleman</t>
+  </si>
+  <si>
     <t>2006/2007</t>
   </si>
   <si>
@@ -359,27 +392,15 @@
     <t>James Reed</t>
   </si>
   <si>
+    <t>Brian Schweitzerhof</t>
+  </si>
+  <si>
     <t>2011/2012</t>
   </si>
   <si>
     <t>Tyler Plesse</t>
   </si>
   <si>
-    <t>David Woolley</t>
-  </si>
-  <si>
-    <t>Craig Holst</t>
-  </si>
-  <si>
-    <t>Matt Donati</t>
-  </si>
-  <si>
-    <t>T.J. Summers</t>
-  </si>
-  <si>
-    <t>Kevin Blasdell</t>
-  </si>
-  <si>
     <t>2012/2013</t>
   </si>
   <si>
@@ -392,7 +413,7 @@
     <t>Joey Medeiros</t>
   </si>
   <si>
-    <t>Doug Coleman</t>
+    <t>Kouta Takamoto</t>
   </si>
   <si>
     <t>2013/2014</t>
@@ -428,9 +449,6 @@
     <t>2015/2016</t>
   </si>
   <si>
-    <t>Brian Schweitzerhof</t>
-  </si>
-  <si>
     <t>Michael Schlillage</t>
   </si>
   <si>
@@ -443,21 +461,24 @@
     <t>2016/2017</t>
   </si>
   <si>
-    <t>Kouta Takamoto</t>
-  </si>
-  <si>
     <t>Troy Carin</t>
   </si>
   <si>
     <t>Brian Cavanaugh</t>
   </si>
   <si>
+    <t>Mike Cable</t>
+  </si>
+  <si>
     <t>2017/2018</t>
   </si>
   <si>
     <t>The coach did not provide any award recipients</t>
   </si>
   <si>
+    <t>Jim Heuther, Jr.</t>
+  </si>
+  <si>
     <t>2018-2019</t>
   </si>
   <si>
@@ -471,12 +492,6 @@
   </si>
   <si>
     <t>Ryan Gilligan</t>
-  </si>
-  <si>
-    <t>Mike Cable</t>
-  </si>
-  <si>
-    <t>Jim Heuther, Jr.</t>
   </si>
   <si>
     <t>Todd Ziegler</t>
@@ -561,7 +576,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -569,6 +584,10 @@
     </font>
     <font>
       <name val="Arial"/>
+    </font>
+    <font>
+      <u/>
+      <color rgb="FF0000FF"/>
     </font>
     <font/>
   </fonts>
@@ -601,7 +620,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -611,40 +630,43 @@
     <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
+    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
     <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right" readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment horizontal="right" readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="3" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -680,592 +702,616 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="5" t="s">
-        <v>4</v>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="7" t="s">
+      <c r="C2" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
+      <c r="E2" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="3">
-      <c r="A3" s="6" t="s">
-        <v>11</v>
+      <c r="A3" s="5" t="s">
+        <v>19</v>
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="D3" s="7" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
     </row>
     <row r="4">
-      <c r="A4" s="6" t="s">
-        <v>13</v>
+      <c r="A4" s="5" t="s">
+        <v>22</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="7" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
     </row>
     <row r="5">
-      <c r="A5" s="8" t="s">
-        <v>17</v>
+      <c r="A5" s="5" t="s">
+        <v>26</v>
       </c>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="D5" s="7" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
     </row>
     <row r="6">
-      <c r="A6" s="8" t="s">
-        <v>19</v>
+      <c r="A6" s="9" t="s">
+        <v>28</v>
       </c>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
       <c r="D6" s="7" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
     </row>
     <row r="7">
-      <c r="A7" s="8" t="s">
-        <v>22</v>
+      <c r="A7" s="9" t="s">
+        <v>31</v>
       </c>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="7" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
     </row>
     <row r="8">
-      <c r="A8" s="8" t="s">
-        <v>24</v>
+      <c r="A8" s="9" t="s">
+        <v>33</v>
       </c>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>26</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="E8" s="1"/>
       <c r="F8" s="1"/>
     </row>
     <row r="9">
-      <c r="A9" s="8" t="s">
-        <v>28</v>
+      <c r="A9" s="9" t="s">
+        <v>37</v>
       </c>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="7" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="F9" s="1"/>
     </row>
     <row r="10">
-      <c r="A10" s="8" t="s">
-        <v>32</v>
+      <c r="A10" s="9" t="s">
+        <v>42</v>
       </c>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
       <c r="D10" s="7" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="F10" s="1"/>
     </row>
     <row r="11">
-      <c r="A11" s="8" t="s">
-        <v>37</v>
+      <c r="A11" s="9" t="s">
+        <v>47</v>
       </c>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="D11" s="7" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="F11" s="1"/>
     </row>
     <row r="12">
-      <c r="A12" s="8" t="s">
-        <v>40</v>
+      <c r="A12" s="9" t="s">
+        <v>52</v>
       </c>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="D12" s="7" t="s">
-        <v>39</v>
+        <v>53</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="F12" s="1"/>
     </row>
     <row r="13">
-      <c r="A13" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>44</v>
-      </c>
+      <c r="A13" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="B13" s="1"/>
       <c r="C13" s="1"/>
       <c r="D13" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="E13" s="9" t="s">
-        <v>46</v>
+        <v>55</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>53</v>
       </c>
       <c r="F13" s="1"/>
     </row>
     <row r="14">
-      <c r="A14" s="8" t="s">
-        <v>49</v>
+      <c r="A14" s="9" t="s">
+        <v>59</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>54</v>
+        <v>61</v>
+      </c>
+      <c r="E14" s="10" t="s">
+        <v>62</v>
       </c>
       <c r="F14" s="1"/>
     </row>
     <row r="15">
-      <c r="A15" s="8" t="s">
-        <v>55</v>
+      <c r="A15" s="9" t="s">
+        <v>65</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>50</v>
+        <v>66</v>
       </c>
       <c r="C15" s="1"/>
       <c r="D15" s="7" t="s">
-        <v>52</v>
+        <v>67</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>56</v>
+        <v>68</v>
       </c>
       <c r="F15" s="1"/>
     </row>
     <row r="16">
-      <c r="A16" s="8" t="s">
-        <v>57</v>
+      <c r="A16" s="9" t="s">
+        <v>70</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="C16" s="1"/>
       <c r="D16" s="7" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="F16" s="1"/>
     </row>
     <row r="17">
-      <c r="A17" s="8"/>
-      <c r="B17" s="1"/>
+      <c r="A17" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>73</v>
+      </c>
       <c r="C17" s="1"/>
       <c r="D17" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="E17" s="7"/>
+        <v>74</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>75</v>
+      </c>
       <c r="F17" s="1"/>
     </row>
     <row r="18">
-      <c r="A18" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="B18" s="7" t="s">
-        <v>65</v>
-      </c>
+      <c r="A18" s="9"/>
+      <c r="B18" s="1"/>
       <c r="C18" s="1"/>
       <c r="D18" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>67</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="E18" s="7"/>
       <c r="F18" s="1"/>
     </row>
     <row r="19">
-      <c r="A19" s="8" t="s">
-        <v>68</v>
+      <c r="A19" s="9" t="s">
+        <v>77</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="C19" s="1"/>
       <c r="D19" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="F19" s="1"/>
     </row>
     <row r="20">
-      <c r="A20" s="10" t="s">
-        <v>73</v>
+      <c r="A20" s="9" t="s">
+        <v>81</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="C20" s="1"/>
       <c r="D20" s="7" t="s">
-        <v>67</v>
+        <v>83</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="F20" s="1"/>
     </row>
     <row r="21">
-      <c r="A21" s="8" t="s">
-        <v>77</v>
+      <c r="A21" s="11" t="s">
+        <v>84</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="C21" s="1"/>
       <c r="D21" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="E21" s="7"/>
+      <c r="E21" s="7" t="s">
+        <v>86</v>
+      </c>
       <c r="F21" s="1"/>
     </row>
     <row r="22">
-      <c r="A22" s="8" t="s">
-        <v>81</v>
+      <c r="A22" s="9" t="s">
+        <v>87</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="C22" s="1"/>
       <c r="D22" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="E22" s="7" t="s">
-        <v>84</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="E22" s="7"/>
       <c r="F22" s="1"/>
     </row>
     <row r="23">
-      <c r="A23" s="8" t="s">
-        <v>85</v>
+      <c r="A23" s="9" t="s">
+        <v>90</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="C23" s="1"/>
       <c r="D23" s="7" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="F23" s="1"/>
     </row>
     <row r="24">
-      <c r="A24" s="8" t="s">
-        <v>89</v>
+      <c r="A24" s="9" t="s">
+        <v>94</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="C24" s="1"/>
       <c r="D24" s="7" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="F24" s="1"/>
     </row>
     <row r="25">
-      <c r="A25" s="8" t="s">
-        <v>93</v>
+      <c r="A25" s="9" t="s">
+        <v>98</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="C25" s="1"/>
       <c r="D25" s="7" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="F25" s="1"/>
     </row>
     <row r="26">
-      <c r="A26" s="8" t="s">
-        <v>96</v>
+      <c r="A26" s="9" t="s">
+        <v>103</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="C26" s="1"/>
       <c r="D26" s="7" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="F26" s="1"/>
     </row>
     <row r="27">
-      <c r="A27" s="8" t="s">
-        <v>100</v>
+      <c r="A27" s="9" t="s">
+        <v>107</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="C27" s="1"/>
       <c r="D27" s="7" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="F27" s="1"/>
     </row>
     <row r="28">
-      <c r="A28" s="8" t="s">
-        <v>104</v>
+      <c r="A28" s="9" t="s">
+        <v>111</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="C28" s="1"/>
-      <c r="D28" s="7"/>
+      <c r="D28" s="7" t="s">
+        <v>113</v>
+      </c>
       <c r="E28" s="7" t="s">
-        <v>102</v>
+        <v>114</v>
       </c>
       <c r="F28" s="1"/>
     </row>
     <row r="29">
-      <c r="A29" s="6" t="s">
-        <v>106</v>
+      <c r="A29" s="9" t="s">
+        <v>115</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="C29" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="D29" s="7" t="s">
-        <v>108</v>
-      </c>
+        <v>116</v>
+      </c>
+      <c r="C29" s="1"/>
+      <c r="D29" s="7"/>
       <c r="E29" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>102</v>
-      </c>
+        <v>113</v>
+      </c>
+      <c r="F29" s="1"/>
     </row>
     <row r="30">
-      <c r="A30" s="6" t="s">
-        <v>110</v>
+      <c r="A30" s="5" t="s">
+        <v>117</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="D30" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="F30" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="E30" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>114</v>
-      </c>
     </row>
     <row r="31">
-      <c r="A31" s="6" t="s">
-        <v>115</v>
+      <c r="A31" s="5" t="s">
+        <v>121</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>105</v>
+        <v>122</v>
       </c>
       <c r="C31" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="D31" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="B32" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="D31" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="E31" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="B32" s="7" t="s">
-        <v>113</v>
-      </c>
       <c r="C32" s="7" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="D32" s="7" t="s">
         <v>124</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>109</v>
+        <v>120</v>
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="6" t="s">
-        <v>127</v>
+      <c r="A33" s="5" t="s">
+        <v>129</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="C33" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="D33" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="B34" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="D33" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="E33" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="F33" s="7" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="6" t="s">
-        <v>132</v>
-      </c>
-      <c r="B34" s="7" t="s">
-        <v>130</v>
-      </c>
       <c r="C34" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="D34" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="11" t="s">
+      <c r="A35" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="B35" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="B35" s="9" t="s">
-        <v>135</v>
-      </c>
-      <c r="D35" s="9" t="s">
-        <v>139</v>
-      </c>
-      <c r="E35" s="9" t="s">
+      <c r="C35" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="F35" s="9" t="s">
+      <c r="D35" s="7" t="s">
         <v>141</v>
+      </c>
+      <c r="E35" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="F35" s="7" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="12" t="s">
+        <v>144</v>
+      </c>
+      <c r="B36" s="10" t="s">
         <v>142</v>
       </c>
-      <c r="B36" s="13"/>
-      <c r="C36" s="14"/>
-      <c r="D36" s="14"/>
-      <c r="E36" s="14"/>
-      <c r="F36" s="14"/>
+      <c r="D36" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="E36" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="F36" s="10" t="s">
+        <v>147</v>
+      </c>
     </row>
     <row r="37">
-      <c r="A37" s="11" t="s">
-        <v>146</v>
-      </c>
-      <c r="B37" s="9" t="s">
-        <v>147</v>
-      </c>
+      <c r="A37" s="13" t="s">
+        <v>148</v>
+      </c>
+      <c r="B37" s="14"/>
+      <c r="C37" s="15"/>
+      <c r="D37" s="15"/>
+      <c r="E37" s="15"/>
+      <c r="F37" s="15"/>
     </row>
     <row r="38">
-      <c r="A38" s="11" t="s">
-        <v>148</v>
-      </c>
-      <c r="B38" s="9" t="s">
-        <v>149</v>
-      </c>
-      <c r="C38" s="9" t="s">
-        <v>150</v>
-      </c>
-      <c r="D38" s="9" t="s">
-        <v>151</v>
-      </c>
-      <c r="E38" s="9" t="s">
+      <c r="A38" s="12" t="s">
         <v>152</v>
       </c>
-      <c r="F38" s="9" t="s">
-        <v>149</v>
+      <c r="B38" s="10" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="9"/>
+      <c r="A39" s="12" t="s">
+        <v>155</v>
+      </c>
+      <c r="B39" s="10" t="s">
+        <v>156</v>
+      </c>
+      <c r="C39" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="D39" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="E39" s="10" t="s">
+        <v>159</v>
+      </c>
+      <c r="F39" s="10" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="10"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink r:id="rId1" ref="D2"/>
+    <hyperlink r:id="rId2" ref="E2"/>
+  </hyperlinks>
   <printOptions gridLines="1" horizontalCentered="1"/>
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
   <pageSetup fitToHeight="0" cellComments="atEnd" orientation="landscape" pageOrder="overThenDown"/>
-  <drawing r:id="rId1"/>
+  <drawing r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -1287,16 +1333,16 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
+      <c r="D1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
@@ -1319,14 +1365,18 @@
       <c r="Z1" s="1"/>
     </row>
     <row r="2">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
+      <c r="C2" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>8</v>
+      </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
@@ -1351,11 +1401,11 @@
       <c r="Z2" s="1"/>
     </row>
     <row r="3">
-      <c r="A3" s="6" t="s">
-        <v>15</v>
+      <c r="A3" s="5" t="s">
+        <v>12</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
@@ -1383,11 +1433,11 @@
       <c r="Z3" s="1"/>
     </row>
     <row r="4">
-      <c r="A4" s="6" t="s">
-        <v>18</v>
+      <c r="A4" s="5" t="s">
+        <v>14</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -1415,11 +1465,11 @@
       <c r="Z4" s="1"/>
     </row>
     <row r="5">
-      <c r="A5" s="6" t="s">
-        <v>27</v>
+      <c r="A5" s="5" t="s">
+        <v>16</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
@@ -1447,11 +1497,11 @@
       <c r="Z5" s="1"/>
     </row>
     <row r="6">
-      <c r="A6" s="6" t="s">
-        <v>34</v>
+      <c r="A6" s="5" t="s">
+        <v>18</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
@@ -1479,11 +1529,11 @@
       <c r="Z6" s="1"/>
     </row>
     <row r="7">
-      <c r="A7" s="6" t="s">
-        <v>41</v>
+      <c r="A7" s="5" t="s">
+        <v>24</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -1511,11 +1561,11 @@
       <c r="Z7" s="1"/>
     </row>
     <row r="8">
-      <c r="A8" s="6" t="s">
-        <v>47</v>
+      <c r="A8" s="5" t="s">
+        <v>29</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
@@ -1543,11 +1593,11 @@
       <c r="Z8" s="1"/>
     </row>
     <row r="9">
-      <c r="A9" s="6" t="s">
-        <v>51</v>
+      <c r="A9" s="5" t="s">
+        <v>34</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>53</v>
+        <v>36</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -1575,11 +1625,11 @@
       <c r="Z9" s="1"/>
     </row>
     <row r="10">
-      <c r="A10" s="6" t="s">
-        <v>58</v>
+      <c r="A10" s="5" t="s">
+        <v>40</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
@@ -1607,11 +1657,11 @@
       <c r="Z10" s="1"/>
     </row>
     <row r="11">
-      <c r="A11" s="6" t="s">
-        <v>64</v>
+      <c r="A11" s="5" t="s">
+        <v>45</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>66</v>
+        <v>46</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
@@ -1639,11 +1689,11 @@
       <c r="Z11" s="1"/>
     </row>
     <row r="12">
-      <c r="A12" s="6" t="s">
-        <v>69</v>
+      <c r="A12" s="5" t="s">
+        <v>48</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>71</v>
+        <v>50</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
@@ -1671,9 +1721,11 @@
       <c r="Z12" s="1"/>
     </row>
     <row r="13">
-      <c r="A13" s="6"/>
+      <c r="A13" s="5" t="s">
+        <v>54</v>
+      </c>
       <c r="B13" s="7" t="s">
-        <v>74</v>
+        <v>56</v>
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
@@ -1701,11 +1753,9 @@
       <c r="Z13" s="1"/>
     </row>
     <row r="14">
-      <c r="A14" s="6" t="s">
-        <v>78</v>
-      </c>
+      <c r="A14" s="5"/>
       <c r="B14" s="7" t="s">
-        <v>79</v>
+        <v>58</v>
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
@@ -1733,11 +1783,11 @@
       <c r="Z14" s="1"/>
     </row>
     <row r="15">
-      <c r="A15" s="6" t="s">
-        <v>8</v>
+      <c r="A15" s="5" t="s">
+        <v>63</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>87</v>
+        <v>64</v>
       </c>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
@@ -1765,11 +1815,11 @@
       <c r="Z15" s="1"/>
     </row>
     <row r="16">
-      <c r="A16" s="6" t="s">
-        <v>11</v>
+      <c r="A16" s="5" t="s">
+        <v>19</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>117</v>
+        <v>69</v>
       </c>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
@@ -1797,11 +1847,11 @@
       <c r="Z16" s="1"/>
     </row>
     <row r="17">
-      <c r="A17" s="6" t="s">
-        <v>13</v>
+      <c r="A17" s="5" t="s">
+        <v>22</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>118</v>
+        <v>76</v>
       </c>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
@@ -1829,11 +1879,11 @@
       <c r="Z17" s="1"/>
     </row>
     <row r="18">
-      <c r="A18" s="8" t="s">
-        <v>17</v>
+      <c r="A18" s="5" t="s">
+        <v>26</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>23</v>
+        <v>79</v>
       </c>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
@@ -1861,11 +1911,11 @@
       <c r="Z18" s="1"/>
     </row>
     <row r="19">
-      <c r="A19" s="8" t="s">
-        <v>19</v>
+      <c r="A19" s="9" t="s">
+        <v>28</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>119</v>
+        <v>35</v>
       </c>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
@@ -1893,9 +1943,11 @@
       <c r="Z19" s="1"/>
     </row>
     <row r="20">
-      <c r="A20" s="8"/>
+      <c r="A20" s="9" t="s">
+        <v>31</v>
+      </c>
       <c r="B20" s="7" t="s">
-        <v>120</v>
+        <v>89</v>
       </c>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
@@ -1923,11 +1975,9 @@
       <c r="Z20" s="1"/>
     </row>
     <row r="21">
-      <c r="A21" s="8" t="s">
-        <v>22</v>
-      </c>
+      <c r="A21" s="9"/>
       <c r="B21" s="7" t="s">
-        <v>121</v>
+        <v>97</v>
       </c>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
@@ -1955,11 +2005,11 @@
       <c r="Z21" s="1"/>
     </row>
     <row r="22">
-      <c r="A22" s="8" t="s">
-        <v>24</v>
+      <c r="A22" s="9" t="s">
+        <v>33</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>126</v>
+        <v>102</v>
       </c>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
@@ -1987,11 +2037,11 @@
       <c r="Z22" s="1"/>
     </row>
     <row r="23">
-      <c r="A23" s="8" t="s">
-        <v>28</v>
+      <c r="A23" s="9" t="s">
+        <v>37</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>35</v>
+        <v>106</v>
       </c>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
@@ -2019,11 +2069,11 @@
       <c r="Z23" s="1"/>
     </row>
     <row r="24">
-      <c r="A24" s="8" t="s">
-        <v>32</v>
+      <c r="A24" s="9" t="s">
+        <v>42</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
@@ -2051,11 +2101,11 @@
       <c r="Z24" s="1"/>
     </row>
     <row r="25">
-      <c r="A25" s="8" t="s">
-        <v>37</v>
+      <c r="A25" s="9" t="s">
+        <v>47</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>138</v>
+        <v>55</v>
       </c>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
@@ -2083,11 +2133,11 @@
       <c r="Z25" s="1"/>
     </row>
     <row r="26">
-      <c r="A26" s="8" t="s">
-        <v>40</v>
+      <c r="A26" s="9" t="s">
+        <v>52</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>143</v>
+        <v>126</v>
       </c>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
@@ -2115,11 +2165,11 @@
       <c r="Z26" s="1"/>
     </row>
     <row r="27">
-      <c r="A27" s="8" t="s">
-        <v>43</v>
+      <c r="A27" s="9" t="s">
+        <v>57</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
@@ -2147,11 +2197,11 @@
       <c r="Z27" s="1"/>
     </row>
     <row r="28">
-      <c r="A28" s="8" t="s">
-        <v>49</v>
+      <c r="A28" s="9" t="s">
+        <v>59</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>144</v>
+        <v>133</v>
       </c>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -2179,11 +2229,11 @@
       <c r="Z28" s="1"/>
     </row>
     <row r="29">
-      <c r="A29" s="8" t="s">
-        <v>55</v>
+      <c r="A29" s="9" t="s">
+        <v>65</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
@@ -2211,11 +2261,11 @@
       <c r="Z29" s="1"/>
     </row>
     <row r="30">
-      <c r="A30" s="8" t="s">
-        <v>57</v>
+      <c r="A30" s="9" t="s">
+        <v>70</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
@@ -2243,9 +2293,11 @@
       <c r="Z30" s="1"/>
     </row>
     <row r="31">
-      <c r="A31" s="8"/>
+      <c r="A31" s="9" t="s">
+        <v>72</v>
+      </c>
       <c r="B31" s="7" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
@@ -2273,11 +2325,9 @@
       <c r="Z31" s="1"/>
     </row>
     <row r="32">
-      <c r="A32" s="8" t="s">
-        <v>63</v>
-      </c>
+      <c r="A32" s="9"/>
       <c r="B32" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
@@ -2305,11 +2355,11 @@
       <c r="Z32" s="1"/>
     </row>
     <row r="33">
-      <c r="A33" s="8" t="s">
-        <v>68</v>
+      <c r="A33" s="9" t="s">
+        <v>77</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
@@ -2337,11 +2387,11 @@
       <c r="Z33" s="1"/>
     </row>
     <row r="34">
-      <c r="A34" s="8" t="s">
-        <v>73</v>
+      <c r="A34" s="9" t="s">
+        <v>81</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
@@ -2369,11 +2419,11 @@
       <c r="Z34" s="1"/>
     </row>
     <row r="35">
-      <c r="A35" s="8" t="s">
-        <v>77</v>
+      <c r="A35" s="9" t="s">
+        <v>84</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
@@ -2401,11 +2451,11 @@
       <c r="Z35" s="1"/>
     </row>
     <row r="36">
-      <c r="A36" s="8" t="s">
-        <v>81</v>
+      <c r="A36" s="9" t="s">
+        <v>87</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>92</v>
+        <v>162</v>
       </c>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
@@ -2433,11 +2483,11 @@
       <c r="Z36" s="1"/>
     </row>
     <row r="37">
-      <c r="A37" s="8" t="s">
-        <v>85</v>
+      <c r="A37" s="9" t="s">
+        <v>90</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>158</v>
+        <v>101</v>
       </c>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
@@ -2465,9 +2515,11 @@
       <c r="Z37" s="1"/>
     </row>
     <row r="38">
-      <c r="A38" s="8"/>
+      <c r="A38" s="9" t="s">
+        <v>94</v>
+      </c>
       <c r="B38" s="7" t="s">
-        <v>92</v>
+        <v>163</v>
       </c>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
@@ -2495,11 +2547,9 @@
       <c r="Z38" s="1"/>
     </row>
     <row r="39">
-      <c r="A39" s="8" t="s">
-        <v>89</v>
-      </c>
+      <c r="A39" s="9"/>
       <c r="B39" s="7" t="s">
-        <v>159</v>
+        <v>101</v>
       </c>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
@@ -2527,9 +2577,11 @@
       <c r="Z39" s="1"/>
     </row>
     <row r="40">
-      <c r="A40" s="8"/>
+      <c r="A40" s="9" t="s">
+        <v>98</v>
+      </c>
       <c r="B40" s="7" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
@@ -2557,11 +2609,9 @@
       <c r="Z40" s="1"/>
     </row>
     <row r="41">
-      <c r="A41" s="8" t="s">
-        <v>93</v>
-      </c>
+      <c r="A41" s="9"/>
       <c r="B41" s="7" t="s">
-        <v>99</v>
+        <v>165</v>
       </c>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
@@ -2589,11 +2639,11 @@
       <c r="Z41" s="1"/>
     </row>
     <row r="42">
-      <c r="A42" s="8" t="s">
-        <v>96</v>
+      <c r="A42" s="9" t="s">
+        <v>103</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
@@ -2621,11 +2671,11 @@
       <c r="Z42" s="1"/>
     </row>
     <row r="43">
-      <c r="A43" s="6" t="s">
-        <v>100</v>
+      <c r="A43" s="9" t="s">
+        <v>107</v>
       </c>
       <c r="B43" s="7" t="s">
-        <v>108</v>
+        <v>119</v>
       </c>
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
@@ -2653,14 +2703,14 @@
       <c r="Z43" s="1"/>
     </row>
     <row r="44">
-      <c r="A44" s="6" t="s">
-        <v>104</v>
+      <c r="A44" s="5" t="s">
+        <v>111</v>
       </c>
       <c r="B44" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="C44" s="7"/>
-      <c r="D44" s="7"/>
+        <v>119</v>
+      </c>
+      <c r="C44" s="1"/>
+      <c r="D44" s="1"/>
       <c r="E44" s="1"/>
       <c r="F44" s="1"/>
       <c r="G44" s="1"/>
@@ -2685,18 +2735,14 @@
       <c r="Z44" s="1"/>
     </row>
     <row r="45">
-      <c r="A45" s="6" t="s">
-        <v>106</v>
+      <c r="A45" s="5" t="s">
+        <v>115</v>
       </c>
       <c r="B45" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="C45" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="D45" s="7" t="s">
-        <v>164</v>
-      </c>
+        <v>166</v>
+      </c>
+      <c r="C45" s="7"/>
+      <c r="D45" s="7"/>
       <c r="E45" s="1"/>
       <c r="F45" s="1"/>
       <c r="G45" s="1"/>
@@ -2721,11 +2767,17 @@
       <c r="Z45" s="1"/>
     </row>
     <row r="46">
-      <c r="A46" s="8"/>
-      <c r="B46" s="7"/>
-      <c r="C46" s="7"/>
+      <c r="A46" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="B46" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="C46" s="7" t="s">
+        <v>168</v>
+      </c>
       <c r="D46" s="7" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="E46" s="1"/>
       <c r="F46" s="1"/>
@@ -2751,11 +2803,11 @@
       <c r="Z46" s="1"/>
     </row>
     <row r="47">
-      <c r="A47" s="8"/>
+      <c r="A47" s="9"/>
       <c r="B47" s="7"/>
       <c r="C47" s="7"/>
       <c r="D47" s="7" t="s">
-        <v>162</v>
+        <v>170</v>
       </c>
       <c r="E47" s="1"/>
       <c r="F47" s="1"/>
@@ -2781,11 +2833,11 @@
       <c r="Z47" s="1"/>
     </row>
     <row r="48">
-      <c r="A48" s="8"/>
+      <c r="A48" s="9"/>
       <c r="B48" s="7"/>
       <c r="C48" s="7"/>
       <c r="D48" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="E48" s="1"/>
       <c r="F48" s="1"/>
@@ -2811,11 +2863,11 @@
       <c r="Z48" s="1"/>
     </row>
     <row r="49">
-      <c r="A49" s="8"/>
+      <c r="A49" s="9"/>
       <c r="B49" s="7"/>
       <c r="C49" s="7"/>
       <c r="D49" s="7" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="E49" s="1"/>
       <c r="F49" s="1"/>
@@ -2841,11 +2893,11 @@
       <c r="Z49" s="1"/>
     </row>
     <row r="50">
-      <c r="A50" s="8"/>
+      <c r="A50" s="9"/>
       <c r="B50" s="7"/>
       <c r="C50" s="7"/>
       <c r="D50" s="7" t="s">
-        <v>161</v>
+        <v>172</v>
       </c>
       <c r="E50" s="1"/>
       <c r="F50" s="1"/>
@@ -2871,11 +2923,11 @@
       <c r="Z50" s="1"/>
     </row>
     <row r="51">
-      <c r="A51" s="8"/>
+      <c r="A51" s="9"/>
       <c r="B51" s="7"/>
       <c r="C51" s="7"/>
       <c r="D51" s="7" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="E51" s="1"/>
       <c r="F51" s="1"/>
@@ -2901,17 +2953,11 @@
       <c r="Z51" s="1"/>
     </row>
     <row r="52">
-      <c r="A52" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="B52" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="C52" s="7" t="s">
-        <v>170</v>
-      </c>
+      <c r="A52" s="9"/>
+      <c r="B52" s="7"/>
+      <c r="C52" s="7"/>
       <c r="D52" s="7" t="s">
-        <v>131</v>
+        <v>173</v>
       </c>
       <c r="E52" s="1"/>
       <c r="F52" s="1"/>
@@ -2937,17 +2983,17 @@
       <c r="Z52" s="1"/>
     </row>
     <row r="53">
-      <c r="A53" s="6" t="s">
-        <v>115</v>
+      <c r="A53" s="5" t="s">
+        <v>121</v>
       </c>
       <c r="B53" s="7" t="s">
-        <v>129</v>
+        <v>174</v>
       </c>
       <c r="C53" s="7" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="D53" s="7" t="s">
-        <v>172</v>
+        <v>138</v>
       </c>
       <c r="E53" s="1"/>
       <c r="F53" s="1"/>
@@ -2973,17 +3019,17 @@
       <c r="Z53" s="1"/>
     </row>
     <row r="54">
-      <c r="A54" s="6" t="s">
-        <v>122</v>
+      <c r="A54" s="5" t="s">
+        <v>127</v>
       </c>
       <c r="B54" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C54" s="7" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="D54" s="7" t="s">
-        <v>136</v>
+        <v>177</v>
       </c>
       <c r="E54" s="1"/>
       <c r="F54" s="1"/>
@@ -3009,17 +3055,17 @@
       <c r="Z54" s="1"/>
     </row>
     <row r="55">
-      <c r="A55" s="6" t="s">
-        <v>127</v>
+      <c r="A55" s="5" t="s">
+        <v>129</v>
       </c>
       <c r="B55" s="7" t="s">
-        <v>174</v>
+        <v>142</v>
       </c>
       <c r="C55" s="7" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="D55" s="7" t="s">
-        <v>174</v>
+        <v>143</v>
       </c>
       <c r="E55" s="1"/>
       <c r="F55" s="1"/>
@@ -3045,17 +3091,17 @@
       <c r="Z55" s="1"/>
     </row>
     <row r="56">
-      <c r="A56" s="6" t="s">
-        <v>132</v>
+      <c r="A56" s="5" t="s">
+        <v>134</v>
       </c>
       <c r="B56" s="7" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="C56" s="7" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="D56" s="7" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="E56" s="1"/>
       <c r="F56" s="1"/>
@@ -3081,32 +3127,71 @@
       <c r="Z56" s="1"/>
     </row>
     <row r="57">
-      <c r="A57" s="11" t="s">
-        <v>137</v>
-      </c>
-      <c r="B57" s="9" t="s">
-        <v>178</v>
-      </c>
-      <c r="C57" s="9" t="s">
-        <v>179</v>
-      </c>
+      <c r="A57" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="B57" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="C57" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="D57" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="E57" s="1"/>
+      <c r="F57" s="1"/>
+      <c r="G57" s="1"/>
+      <c r="H57" s="1"/>
+      <c r="I57" s="1"/>
+      <c r="J57" s="1"/>
+      <c r="K57" s="1"/>
+      <c r="L57" s="1"/>
+      <c r="M57" s="1"/>
+      <c r="N57" s="1"/>
+      <c r="O57" s="1"/>
+      <c r="P57" s="1"/>
+      <c r="Q57" s="1"/>
+      <c r="R57" s="1"/>
+      <c r="S57" s="1"/>
+      <c r="T57" s="1"/>
+      <c r="U57" s="1"/>
+      <c r="V57" s="1"/>
+      <c r="W57" s="1"/>
+      <c r="X57" s="1"/>
+      <c r="Y57" s="1"/>
+      <c r="Z57" s="1"/>
     </row>
     <row r="58">
-      <c r="A58" s="11" t="s">
-        <v>142</v>
+      <c r="A58" s="12" t="s">
+        <v>144</v>
+      </c>
+      <c r="B58" s="10" t="s">
+        <v>183</v>
+      </c>
+      <c r="C58" s="10" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="59">
-      <c r="A59" s="11" t="s">
-        <v>146</v>
+      <c r="A59" s="12" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="60">
-      <c r="A60" s="11" t="s">
-        <v>180</v>
+      <c r="A60" s="12" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="12" t="s">
+        <v>185</v>
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <hyperlinks>
+    <hyperlink r:id="rId1" ref="B2"/>
+  </hyperlinks>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/scripts/shstrophies/data/Mr Torren_s initial data input/Spring Awards/Baseball.xlsx
+++ b/scripts/shstrophies/data/Mr Torren_s initial data input/Spring Awards/Baseball.xlsx
@@ -71,10 +71,34 @@
     <t>1974/1975</t>
   </si>
   <si>
+    <t>Rob Snyder</t>
+  </si>
+  <si>
+    <t>1975/1976</t>
+  </si>
+  <si>
+    <t>Ted Rafalovich</t>
+  </si>
+  <si>
+    <t>1976/1977</t>
+  </si>
+  <si>
+    <t>Ted Hanson</t>
+  </si>
+  <si>
+    <t>1977/1978</t>
+  </si>
+  <si>
+    <t>Frank Mills</t>
+  </si>
+  <si>
     <t>1983/1984</t>
   </si>
   <si>
-    <t>Rob Snyder</t>
+    <t>1978/1979</t>
+  </si>
+  <si>
+    <t>Eric Johnson</t>
   </si>
   <si>
     <t>Rich Shepperd</t>
@@ -86,10 +110,10 @@
     <t>Ed Kirk</t>
   </si>
   <si>
-    <t>1975/1976</t>
-  </si>
-  <si>
-    <t>Ted Rafalovich</t>
+    <t>1979/1980</t>
+  </si>
+  <si>
+    <t>John Lawson</t>
   </si>
   <si>
     <t>1985/1986</t>
@@ -101,28 +125,40 @@
     <t>1986/1987</t>
   </si>
   <si>
-    <t>1976/1977</t>
-  </si>
-  <si>
-    <t>Ted Hanson</t>
+    <t>1980/1981</t>
+  </si>
+  <si>
+    <t>Dave Taughinbaugh</t>
+  </si>
+  <si>
+    <t>1981/1982</t>
+  </si>
+  <si>
+    <t>Walter Eissman</t>
+  </si>
+  <si>
+    <t>Richard Shepperd</t>
+  </si>
+  <si>
+    <t>1982/1984</t>
   </si>
   <si>
     <t>1987/1988</t>
   </si>
   <si>
+    <t>Jim Cuddy</t>
+  </si>
+  <si>
     <t>Dave Anshes</t>
   </si>
   <si>
     <t>1988/1989</t>
   </si>
   <si>
-    <t>1977/1978</t>
-  </si>
-  <si>
     <t>Eric Shaw</t>
   </si>
   <si>
-    <t>Frank Mills</t>
+    <t>Steve Pace</t>
   </si>
   <si>
     <t>1989/1990</t>
@@ -134,63 +170,42 @@
     <t>Brian Lynch</t>
   </si>
   <si>
-    <t>1978/1979</t>
-  </si>
-  <si>
-    <t>Eric Johnson</t>
-  </si>
-  <si>
     <t>1990/1991</t>
   </si>
   <si>
+    <t>David Woolley</t>
+  </si>
+  <si>
     <t>James Renola</t>
   </si>
   <si>
     <t>Jason McCullough</t>
   </si>
   <si>
-    <t>1979/1980</t>
-  </si>
-  <si>
-    <t>John Lawson</t>
-  </si>
-  <si>
     <t>1991/1992</t>
   </si>
   <si>
-    <t>1980/1981</t>
-  </si>
-  <si>
     <t>Brian Hanley</t>
   </si>
   <si>
-    <t>Dave Taughinbaugh</t>
-  </si>
-  <si>
     <t>Scott Curry</t>
   </si>
   <si>
+    <t>Craig Holst</t>
+  </si>
+  <si>
     <t>1992/1993</t>
   </si>
   <si>
     <t>Kyle Goni</t>
   </si>
   <si>
-    <t>1981/1982</t>
-  </si>
-  <si>
     <t>Matt Jones</t>
   </si>
   <si>
-    <t>Walter Eissman</t>
-  </si>
-  <si>
     <t>1993/1994</t>
   </si>
   <si>
-    <t>Richard Shepperd</t>
-  </si>
-  <si>
     <t>1994/1995</t>
   </si>
   <si>
@@ -203,10 +218,10 @@
     <t>Kyle Cardin</t>
   </si>
   <si>
-    <t>1982/1984</t>
-  </si>
-  <si>
-    <t>Jim Cuddy</t>
+    <t>Matt Donati</t>
+  </si>
+  <si>
+    <t>T.J. Summers</t>
   </si>
   <si>
     <t>1995/1996</t>
@@ -218,12 +233,12 @@
     <t>Kota Takamoto</t>
   </si>
   <si>
+    <t>Kevin Blasdell</t>
+  </si>
+  <si>
     <t>David Schneider</t>
   </si>
   <si>
-    <t>Steve Pace</t>
-  </si>
-  <si>
     <t>1996/1997</t>
   </si>
   <si>
@@ -242,16 +257,13 @@
     <t>Erick Raich</t>
   </si>
   <si>
-    <t>David Woolley</t>
-  </si>
-  <si>
     <t>1998/1999</t>
   </si>
   <si>
     <t>Brady Moran</t>
   </si>
   <si>
-    <t>Craig Holst</t>
+    <t>Doug Coleman</t>
   </si>
   <si>
     <t>Caleb Mosley</t>
@@ -281,9 +293,6 @@
     <t>Buck Wright</t>
   </si>
   <si>
-    <t>Matt Donati</t>
-  </si>
-  <si>
     <t>2002/2003</t>
   </si>
   <si>
@@ -305,9 +314,6 @@
     <t>Peter Rutti</t>
   </si>
   <si>
-    <t>T.J. Summers</t>
-  </si>
-  <si>
     <t>2004/2005</t>
   </si>
   <si>
@@ -320,9 +326,6 @@
     <t>Scott Newberry</t>
   </si>
   <si>
-    <t>Kevin Blasdell</t>
-  </si>
-  <si>
     <t>2005/2006</t>
   </si>
   <si>
@@ -332,9 +335,6 @@
     <t>Bo Nielson</t>
   </si>
   <si>
-    <t>Doug Coleman</t>
-  </si>
-  <si>
     <t>2006/2007</t>
   </si>
   <si>
@@ -374,6 +374,9 @@
     <t>Andy Berman</t>
   </si>
   <si>
+    <t>Brian Schweitzerhof</t>
+  </si>
+  <si>
     <t>Kyle Dozier</t>
   </si>
   <si>
@@ -392,15 +395,15 @@
     <t>James Reed</t>
   </si>
   <si>
-    <t>Brian Schweitzerhof</t>
-  </si>
-  <si>
     <t>2011/2012</t>
   </si>
   <si>
     <t>Tyler Plesse</t>
   </si>
   <si>
+    <t>Kouta Takamoto</t>
+  </si>
+  <si>
     <t>2012/2013</t>
   </si>
   <si>
@@ -413,9 +416,6 @@
     <t>Joey Medeiros</t>
   </si>
   <si>
-    <t>Kouta Takamoto</t>
-  </si>
-  <si>
     <t>2013/2014</t>
   </si>
   <si>
@@ -440,6 +440,9 @@
     <t>Andrew Ferguson</t>
   </si>
   <si>
+    <t>Troy Carin</t>
+  </si>
+  <si>
     <t>Tyler Yoshihara</t>
   </si>
   <si>
@@ -449,6 +452,9 @@
     <t>2015/2016</t>
   </si>
   <si>
+    <t>Brian Cavanaugh</t>
+  </si>
+  <si>
     <t>Michael Schlillage</t>
   </si>
   <si>
@@ -461,27 +467,27 @@
     <t>2016/2017</t>
   </si>
   <si>
-    <t>Troy Carin</t>
-  </si>
-  <si>
-    <t>Brian Cavanaugh</t>
-  </si>
-  <si>
     <t>Mike Cable</t>
   </si>
   <si>
+    <t>Jim Heuther, Jr.</t>
+  </si>
+  <si>
+    <t>Todd Ziegler</t>
+  </si>
+  <si>
     <t>2017/2018</t>
   </si>
   <si>
     <t>The coach did not provide any award recipients</t>
   </si>
   <si>
-    <t>Jim Heuther, Jr.</t>
-  </si>
-  <si>
     <t>2018-2019</t>
   </si>
   <si>
+    <t>Andrew Spencer</t>
+  </si>
+  <si>
     <t>Matt Jacobs</t>
   </si>
   <si>
@@ -492,12 +498,6 @@
   </si>
   <si>
     <t>Ryan Gilligan</t>
-  </si>
-  <si>
-    <t>Todd Ziegler</t>
-  </si>
-  <si>
-    <t>Andrew Spencer</t>
   </si>
   <si>
     <t>Chirs Hornberger</t>
@@ -630,17 +630,17 @@
     <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
     <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+      <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
@@ -713,12 +713,12 @@
       <c r="E1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="5" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="6" t="s">
         <v>7</v>
       </c>
       <c r="B2" s="7" t="s">
@@ -738,208 +738,208 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="5" t="s">
-        <v>19</v>
+      <c r="A3" s="6" t="s">
+        <v>26</v>
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="D3" s="7" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
     </row>
     <row r="4">
-      <c r="A4" s="5" t="s">
-        <v>22</v>
+      <c r="A4" s="6" t="s">
+        <v>30</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="7" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
     </row>
     <row r="5">
-      <c r="A5" s="5" t="s">
-        <v>26</v>
+      <c r="A5" s="6" t="s">
+        <v>34</v>
       </c>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="D5" s="7" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
     </row>
     <row r="6">
       <c r="A6" s="9" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
       <c r="D6" s="7" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
     </row>
     <row r="7">
       <c r="A7" s="9" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="7" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
     </row>
     <row r="8">
       <c r="A8" s="9" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="7" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
     </row>
     <row r="9">
       <c r="A9" s="9" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="7" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="F9" s="1"/>
     </row>
     <row r="10">
       <c r="A10" s="9" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
       <c r="D10" s="7" t="s">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="F10" s="1"/>
     </row>
     <row r="11">
       <c r="A11" s="9" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="D11" s="7" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="F11" s="1"/>
     </row>
     <row r="12">
       <c r="A12" s="9" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="D12" s="7" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="F12" s="1"/>
     </row>
     <row r="13">
       <c r="A13" s="9" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
       <c r="D13" s="7" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="F13" s="1"/>
     </row>
     <row r="14">
       <c r="A14" s="9" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="7" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="E14" s="10" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="F14" s="1"/>
     </row>
     <row r="15">
       <c r="A15" s="9" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="C15" s="1"/>
       <c r="D15" s="7" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="F15" s="1"/>
     </row>
     <row r="16">
       <c r="A16" s="9" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="C16" s="1"/>
       <c r="D16" s="7" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="F16" s="1"/>
     </row>
     <row r="17">
       <c r="A17" s="9" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="C17" s="1"/>
       <c r="D17" s="7" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="F17" s="1"/>
     </row>
@@ -948,134 +948,134 @@
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
       <c r="D18" s="7" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="E18" s="7"/>
       <c r="F18" s="1"/>
     </row>
     <row r="19">
       <c r="A19" s="9" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="C19" s="1"/>
       <c r="D19" s="7" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="F19" s="1"/>
     </row>
     <row r="20">
       <c r="A20" s="9" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="C20" s="1"/>
       <c r="D20" s="7" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="F20" s="1"/>
     </row>
     <row r="21">
       <c r="A21" s="11" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="C21" s="1"/>
       <c r="D21" s="7" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="F21" s="1"/>
     </row>
     <row r="22">
       <c r="A22" s="9" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="C22" s="1"/>
       <c r="D22" s="7" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="E22" s="7"/>
       <c r="F22" s="1"/>
     </row>
     <row r="23">
       <c r="A23" s="9" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="C23" s="1"/>
       <c r="D23" s="7" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="F23" s="1"/>
     </row>
     <row r="24">
       <c r="A24" s="9" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="C24" s="1"/>
       <c r="D24" s="7" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="F24" s="1"/>
     </row>
     <row r="25">
       <c r="A25" s="9" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C25" s="1"/>
       <c r="D25" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="F25" s="1"/>
     </row>
     <row r="26">
       <c r="A26" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="B26" s="7" t="s">
         <v>103</v>
-      </c>
-      <c r="B26" s="7" t="s">
-        <v>101</v>
       </c>
       <c r="C26" s="1"/>
       <c r="D26" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F26" s="1"/>
     </row>
@@ -1126,7 +1126,7 @@
       <c r="F29" s="1"/>
     </row>
     <row r="30">
-      <c r="A30" s="5" t="s">
+      <c r="A30" s="6" t="s">
         <v>117</v>
       </c>
       <c r="B30" s="7" t="s">
@@ -1139,34 +1139,34 @@
         <v>119</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F30" s="7" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="5" t="s">
-        <v>121</v>
+      <c r="A31" s="6" t="s">
+        <v>122</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D31" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="5" t="s">
+      <c r="A32" s="6" t="s">
         <v>127</v>
       </c>
       <c r="B32" s="7" t="s">
@@ -1176,37 +1176,37 @@
         <v>128</v>
       </c>
       <c r="D32" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="E32" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="E32" s="7" t="s">
-        <v>123</v>
-      </c>
       <c r="F32" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="5" t="s">
-        <v>129</v>
+      <c r="A33" s="6" t="s">
+        <v>130</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D33" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="5" t="s">
+      <c r="A34" s="6" t="s">
         <v>134</v>
       </c>
       <c r="B34" s="7" t="s">
@@ -1226,7 +1226,7 @@
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="5" t="s">
+      <c r="A35" s="6" t="s">
         <v>139</v>
       </c>
       <c r="B35" s="7" t="s">
@@ -1239,32 +1239,32 @@
         <v>141</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="12" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B36" s="10" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D36" s="10" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E36" s="10" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="F36" s="10" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="13" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B37" s="14"/>
       <c r="C37" s="15"/>
@@ -1274,30 +1274,30 @@
     </row>
     <row r="38">
       <c r="A38" s="12" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B38" s="10" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="12" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B39" s="10" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="C39" s="10" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="D39" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="E39" s="10" t="s">
+        <v>161</v>
+      </c>
+      <c r="F39" s="10" t="s">
         <v>158</v>
-      </c>
-      <c r="E39" s="10" t="s">
-        <v>159</v>
-      </c>
-      <c r="F39" s="10" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="40">
@@ -1335,14 +1335,14 @@
       <c r="B1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
@@ -1365,7 +1365,7 @@
       <c r="Z1" s="1"/>
     </row>
     <row r="2">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="6" t="s">
         <v>7</v>
       </c>
       <c r="B2" s="8" t="s">
@@ -1401,7 +1401,7 @@
       <c r="Z2" s="1"/>
     </row>
     <row r="3">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="6" t="s">
         <v>12</v>
       </c>
       <c r="B3" s="7" t="s">
@@ -1433,7 +1433,7 @@
       <c r="Z3" s="1"/>
     </row>
     <row r="4">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="6" t="s">
         <v>14</v>
       </c>
       <c r="B4" s="7" t="s">
@@ -1465,7 +1465,7 @@
       <c r="Z4" s="1"/>
     </row>
     <row r="5">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="6" t="s">
         <v>16</v>
       </c>
       <c r="B5" s="7" t="s">
@@ -1497,11 +1497,11 @@
       <c r="Z5" s="1"/>
     </row>
     <row r="6">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="6" t="s">
         <v>18</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
@@ -1529,11 +1529,11 @@
       <c r="Z6" s="1"/>
     </row>
     <row r="7">
-      <c r="A7" s="5" t="s">
-        <v>24</v>
+      <c r="A7" s="6" t="s">
+        <v>20</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -1561,11 +1561,11 @@
       <c r="Z7" s="1"/>
     </row>
     <row r="8">
-      <c r="A8" s="5" t="s">
-        <v>29</v>
+      <c r="A8" s="6" t="s">
+        <v>22</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
@@ -1593,11 +1593,11 @@
       <c r="Z8" s="1"/>
     </row>
     <row r="9">
-      <c r="A9" s="5" t="s">
-        <v>34</v>
+      <c r="A9" s="6" t="s">
+        <v>24</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -1625,11 +1625,11 @@
       <c r="Z9" s="1"/>
     </row>
     <row r="10">
-      <c r="A10" s="5" t="s">
-        <v>40</v>
+      <c r="A10" s="6" t="s">
+        <v>27</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
@@ -1657,11 +1657,11 @@
       <c r="Z10" s="1"/>
     </row>
     <row r="11">
-      <c r="A11" s="5" t="s">
-        <v>45</v>
+      <c r="A11" s="6" t="s">
+        <v>32</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
@@ -1689,11 +1689,11 @@
       <c r="Z11" s="1"/>
     </row>
     <row r="12">
-      <c r="A12" s="5" t="s">
-        <v>48</v>
+      <c r="A12" s="6" t="s">
+        <v>37</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
@@ -1721,11 +1721,11 @@
       <c r="Z12" s="1"/>
     </row>
     <row r="13">
-      <c r="A13" s="5" t="s">
-        <v>54</v>
+      <c r="A13" s="6" t="s">
+        <v>39</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>56</v>
+        <v>40</v>
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
@@ -1753,9 +1753,9 @@
       <c r="Z13" s="1"/>
     </row>
     <row r="14">
-      <c r="A14" s="5"/>
+      <c r="A14" s="6"/>
       <c r="B14" s="7" t="s">
-        <v>58</v>
+        <v>41</v>
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
@@ -1783,11 +1783,11 @@
       <c r="Z14" s="1"/>
     </row>
     <row r="15">
-      <c r="A15" s="5" t="s">
-        <v>63</v>
+      <c r="A15" s="6" t="s">
+        <v>42</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>64</v>
+        <v>44</v>
       </c>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
@@ -1815,11 +1815,11 @@
       <c r="Z15" s="1"/>
     </row>
     <row r="16">
-      <c r="A16" s="5" t="s">
-        <v>19</v>
+      <c r="A16" s="6" t="s">
+        <v>26</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>69</v>
+        <v>48</v>
       </c>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
@@ -1847,11 +1847,11 @@
       <c r="Z16" s="1"/>
     </row>
     <row r="17">
-      <c r="A17" s="5" t="s">
-        <v>22</v>
+      <c r="A17" s="6" t="s">
+        <v>30</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>76</v>
+        <v>53</v>
       </c>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
@@ -1879,11 +1879,11 @@
       <c r="Z17" s="1"/>
     </row>
     <row r="18">
-      <c r="A18" s="5" t="s">
-        <v>26</v>
+      <c r="A18" s="6" t="s">
+        <v>34</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
@@ -1912,10 +1912,10 @@
     </row>
     <row r="19">
       <c r="A19" s="9" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
@@ -1944,10 +1944,10 @@
     </row>
     <row r="20">
       <c r="A20" s="9" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>89</v>
+        <v>68</v>
       </c>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
@@ -1977,7 +1977,7 @@
     <row r="21">
       <c r="A21" s="9"/>
       <c r="B21" s="7" t="s">
-        <v>97</v>
+        <v>69</v>
       </c>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
@@ -2006,10 +2006,10 @@
     </row>
     <row r="22">
       <c r="A22" s="9" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>102</v>
+        <v>73</v>
       </c>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
@@ -2038,10 +2038,10 @@
     </row>
     <row r="23">
       <c r="A23" s="9" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>106</v>
+        <v>83</v>
       </c>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
@@ -2070,10 +2070,10 @@
     </row>
     <row r="24">
       <c r="A24" s="9" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
@@ -2102,10 +2102,10 @@
     </row>
     <row r="25">
       <c r="A25" s="9" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
@@ -2134,10 +2134,10 @@
     </row>
     <row r="26">
       <c r="A26" s="9" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
@@ -2166,10 +2166,10 @@
     </row>
     <row r="27">
       <c r="A27" s="9" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
@@ -2198,10 +2198,10 @@
     </row>
     <row r="28">
       <c r="A28" s="9" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -2230,10 +2230,10 @@
     </row>
     <row r="29">
       <c r="A29" s="9" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
@@ -2262,10 +2262,10 @@
     </row>
     <row r="30">
       <c r="A30" s="9" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
@@ -2294,7 +2294,7 @@
     </row>
     <row r="31">
       <c r="A31" s="9" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="B31" s="7" t="s">
         <v>151</v>
@@ -2327,7 +2327,7 @@
     <row r="32">
       <c r="A32" s="9"/>
       <c r="B32" s="7" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
@@ -2356,7 +2356,7 @@
     </row>
     <row r="33">
       <c r="A33" s="9" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B33" s="7" t="s">
         <v>151</v>
@@ -2388,10 +2388,10 @@
     </row>
     <row r="34">
       <c r="A34" s="9" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
@@ -2420,10 +2420,10 @@
     </row>
     <row r="35">
       <c r="A35" s="9" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
@@ -2452,7 +2452,7 @@
     </row>
     <row r="36">
       <c r="A36" s="9" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B36" s="7" t="s">
         <v>162</v>
@@ -2484,10 +2484,10 @@
     </row>
     <row r="37">
       <c r="A37" s="9" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
@@ -2516,7 +2516,7 @@
     </row>
     <row r="38">
       <c r="A38" s="9" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B38" s="7" t="s">
         <v>163</v>
@@ -2549,7 +2549,7 @@
     <row r="39">
       <c r="A39" s="9"/>
       <c r="B39" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
@@ -2578,7 +2578,7 @@
     </row>
     <row r="40">
       <c r="A40" s="9" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B40" s="7" t="s">
         <v>164</v>
@@ -2640,7 +2640,7 @@
     </row>
     <row r="42">
       <c r="A42" s="9" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B42" s="7" t="s">
         <v>110</v>
@@ -2703,7 +2703,7 @@
       <c r="Z43" s="1"/>
     </row>
     <row r="44">
-      <c r="A44" s="5" t="s">
+      <c r="A44" s="6" t="s">
         <v>111</v>
       </c>
       <c r="B44" s="7" t="s">
@@ -2735,7 +2735,7 @@
       <c r="Z44" s="1"/>
     </row>
     <row r="45">
-      <c r="A45" s="5" t="s">
+      <c r="A45" s="6" t="s">
         <v>115</v>
       </c>
       <c r="B45" s="7" t="s">
@@ -2767,7 +2767,7 @@
       <c r="Z45" s="1"/>
     </row>
     <row r="46">
-      <c r="A46" s="5" t="s">
+      <c r="A46" s="6" t="s">
         <v>117</v>
       </c>
       <c r="B46" s="7" t="s">
@@ -2983,8 +2983,8 @@
       <c r="Z52" s="1"/>
     </row>
     <row r="53">
-      <c r="A53" s="5" t="s">
-        <v>121</v>
+      <c r="A53" s="6" t="s">
+        <v>122</v>
       </c>
       <c r="B53" s="7" t="s">
         <v>174</v>
@@ -3019,7 +3019,7 @@
       <c r="Z53" s="1"/>
     </row>
     <row r="54">
-      <c r="A54" s="5" t="s">
+      <c r="A54" s="6" t="s">
         <v>127</v>
       </c>
       <c r="B54" s="7" t="s">
@@ -3055,17 +3055,17 @@
       <c r="Z54" s="1"/>
     </row>
     <row r="55">
-      <c r="A55" s="5" t="s">
-        <v>129</v>
+      <c r="A55" s="6" t="s">
+        <v>130</v>
       </c>
       <c r="B55" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C55" s="7" t="s">
         <v>178</v>
       </c>
       <c r="D55" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E55" s="1"/>
       <c r="F55" s="1"/>
@@ -3091,7 +3091,7 @@
       <c r="Z55" s="1"/>
     </row>
     <row r="56">
-      <c r="A56" s="5" t="s">
+      <c r="A56" s="6" t="s">
         <v>134</v>
       </c>
       <c r="B56" s="7" t="s">
@@ -3127,7 +3127,7 @@
       <c r="Z56" s="1"/>
     </row>
     <row r="57">
-      <c r="A57" s="5" t="s">
+      <c r="A57" s="6" t="s">
         <v>139</v>
       </c>
       <c r="B57" s="7" t="s">
@@ -3164,7 +3164,7 @@
     </row>
     <row r="58">
       <c r="A58" s="12" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B58" s="10" t="s">
         <v>183</v>
@@ -3175,12 +3175,12 @@
     </row>
     <row r="59">
       <c r="A59" s="12" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="12" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="61">
